--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF41EB6-EDD4-4E47-8045-240BD01B555A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD00E50-A351-42E8-B9C9-5982AD537FB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30240" yWindow="1005" windowWidth="21600" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,15 @@
   <si>
     <t>生命成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero98</t>
+  </si>
+  <si>
+    <t>hero99</t>
+  </si>
+  <si>
+    <t>hero100</t>
   </si>
 </sst>
 </file>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:F100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,11 +786,11 @@
       </c>
       <c r="C4">
         <f ca="1">ROUNDUP(RAND()*100, 0)</f>
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <f ca="1">ROUNDUP(RAND()*100, 0)</f>
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <f ca="1">ROUNDUP(RAND()*10, 0)</f>
@@ -789,7 +798,7 @@
       </c>
       <c r="F4">
         <f ca="1">ROUNDUP(RAND()*10, 0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,11 +810,11 @@
       </c>
       <c r="C5">
         <f ca="1">ROUNDUP(RAND()*100, 0)</f>
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <f ca="1">ROUNDUP(RAND()*100, 0)</f>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:F36" ca="1" si="0">ROUNDUP(RAND()*10, 0)</f>
@@ -813,7 +822,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -825,19 +834,19 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:D37" ca="1" si="1">ROUNDUP(RAND()*100, 0)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -849,19 +858,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,19 +882,19 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,19 +906,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -921,19 +930,19 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -945,19 +954,19 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -969,11 +978,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
@@ -981,7 +990,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,19 +1002,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,19 +1026,19 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1041,19 +1050,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,19 +1074,19 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,19 +1098,19 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1113,19 +1122,19 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,19 +1146,19 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,19 +1170,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,15 +1194,15 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
@@ -1209,19 +1218,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,19 +1242,19 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1257,19 +1266,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,11 +1290,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
@@ -1305,19 +1314,19 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1329,11 +1338,11 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
@@ -1341,7 +1350,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1353,19 +1362,19 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1377,19 +1386,19 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1401,11 +1410,11 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
@@ -1413,7 +1422,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1425,19 +1434,19 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1449,19 +1458,19 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,19 +1482,19 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,19 +1506,19 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1521,11 +1530,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
@@ -1533,7 +1542,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1545,15 +1554,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
@@ -1569,15 +1578,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:F68" ca="1" si="2">ROUNDUP(RAND()*10, 0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
@@ -1593,15 +1602,15 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:D69" ca="1" si="3">ROUNDUP(RAND()*100, 0)</f>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
@@ -1617,19 +1626,19 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1641,19 +1650,19 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1665,19 +1674,19 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1689,19 +1698,19 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1713,19 +1722,19 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,19 +1746,19 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,19 +1770,19 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,19 +1794,19 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,19 +1818,19 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1833,19 +1842,19 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1857,19 +1866,19 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1881,19 +1890,19 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1905,19 +1914,19 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1933,15 +1942,15 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,15 +1962,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
@@ -1977,19 +1986,19 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2001,11 +2010,11 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
@@ -2013,7 +2022,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2025,19 +2034,19 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2049,19 +2058,19 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2073,19 +2082,19 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2097,15 +2106,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
@@ -2121,11 +2130,11 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
@@ -2133,7 +2142,7 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2145,15 +2154,15 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
@@ -2169,19 +2178,19 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2193,11 +2202,11 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
@@ -2205,7 +2214,7 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2217,15 +2226,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
@@ -2241,19 +2250,19 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2265,19 +2274,19 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2289,19 +2298,19 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2313,19 +2322,19 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="3"/>
         <v>34</v>
       </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2337,19 +2346,19 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:F100" ca="1" si="4">ROUNDUP(RAND()*10, 0)</f>
-        <v>4</v>
+        <f t="shared" ref="E69:F101" ca="1" si="4">ROUNDUP(RAND()*10, 0)</f>
+        <v>1</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2360,16 +2369,16 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:D100" ca="1" si="5">ROUNDUP(RAND()*100, 0)</f>
-        <v>70</v>
+        <f t="shared" ref="C70:D101" ca="1" si="5">ROUNDUP(RAND()*100, 0)</f>
+        <v>73</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
@@ -2385,19 +2394,19 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2409,19 +2418,19 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2433,19 +2442,19 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2457,11 +2466,11 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
@@ -2469,7 +2478,7 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2481,11 +2490,11 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
@@ -2493,7 +2502,7 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2505,7 +2514,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2529,11 +2538,11 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
@@ -2541,7 +2550,7 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2553,11 +2562,11 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
@@ -2577,19 +2586,19 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2601,11 +2610,11 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
@@ -2613,7 +2622,7 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2625,19 +2634,19 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2649,19 +2658,19 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2673,11 +2682,11 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2697,19 +2706,19 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2721,19 +2730,19 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2745,19 +2754,19 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2769,19 +2778,19 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,11 +2802,11 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
@@ -2805,7 +2814,7 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2817,19 +2826,19 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2841,19 +2850,19 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2865,19 +2874,19 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2889,19 +2898,19 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2913,19 +2922,19 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2937,19 +2946,19 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2961,19 +2970,19 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2985,15 +2994,15 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
@@ -3009,19 +3018,19 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3033,19 +3042,19 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,19 +3066,19 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3081,19 +3090,91 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:D103" ca="1" si="6">ROUNDUP(RAND()*100, 0)</f>
+        <v>41</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ref="E102:F103" ca="1" si="7">ROUNDUP(RAND()*10, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="F100">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+      <c r="E103">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
